--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -31,7 +31,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -93,6 +92,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -458,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,15 +549,64 @@
       <c r="K4" s="6" t="n"/>
       <c r="L4" s="7" t="n"/>
     </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Шахматная партия</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Играна во "2" туре 01.01.2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>Белые: Иванов Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Чёрные: Петров Пётр</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Белые</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>Чёрные</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="55" customHeight="1">
@@ -592,6 +595,748 @@
         <is>
           <t>Чёрные</t>
         </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Белые</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Чёрные</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>e4</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>e5</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>Bc4</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Bc5</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Nf3</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Nc6</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Ng5</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Qxg5</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>d3</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Qxg2</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>Qe2</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Qxh1+</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Qf1</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Qf3</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>Nd2</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Qg4</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Nd4</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Nxc2#</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>d3f</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>d3gd</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>fg4</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>ffg</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>rrtty</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>ffgg</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>hjj</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>gt</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>frty</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>5yt</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>56yh</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>565yt</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>ytty</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>tyyt</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>ty</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>tt</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>Результат:</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -474,10 +474,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="55" customHeight="1">
@@ -558,6 +558,11 @@
           <t>Шахматная партия</t>
         </is>
       </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>Шахматная партия</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
@@ -565,6 +570,11 @@
           <t>Играна во "2" туре 01.01.2000</t>
         </is>
       </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>Играна во "2" туре 01.01.2000</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="inlineStr">
@@ -572,6 +582,11 @@
           <t>Белые: Иванов Иван</t>
         </is>
       </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Белые: Петров Пётр</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>Чёрные: Петров Пётр</t>
         </is>
       </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Чёрные: Иванов Иван</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="inlineStr">
@@ -607,6 +627,36 @@
         </is>
       </c>
       <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Чёрные</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Белые</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Чёрные</t>
+        </is>
+      </c>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>Белые</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>Чёрные</t>
         </is>
@@ -639,6 +689,32 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>e4</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>e5</t>
+        </is>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n">
@@ -667,6 +743,32 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="inlineStr">
+        <is>
+          <t>Bc4</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>Bc5</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
@@ -695,6 +797,32 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G14" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Nf3</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>Nc6</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L14" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n">
@@ -723,6 +851,32 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10" t="inlineStr">
+        <is>
+          <t>Ng5</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>Qxg5</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="K15" s="10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="L15" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
@@ -751,6 +905,32 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>d3</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="inlineStr">
+        <is>
+          <t>Qxg2</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="K16" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
@@ -779,6 +959,32 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G17" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>Qe2</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>Qxh1+</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K17" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L17" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
@@ -803,6 +1009,28 @@
         </is>
       </c>
       <c r="F18" s="10" t="inlineStr"/>
+      <c r="G18" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="inlineStr">
+        <is>
+          <t>Qf1</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>Qf3</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="K18" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="10" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
@@ -821,6 +1049,22 @@
       <c r="D19" s="8" t="n">
         <v>44</v>
       </c>
+      <c r="G19" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>Nd2</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>Qg4</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="n">
@@ -839,6 +1083,22 @@
       <c r="D20" s="8" t="n">
         <v>45</v>
       </c>
+      <c r="G20" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>Nd4</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
@@ -857,6 +1117,22 @@
       <c r="D21" s="8" t="n">
         <v>46</v>
       </c>
+      <c r="G21" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="10" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="inlineStr">
+        <is>
+          <t>Nxc2#</t>
+        </is>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="n">
@@ -875,6 +1151,22 @@
       <c r="D22" s="8" t="n">
         <v>47</v>
       </c>
+      <c r="G22" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" s="10" t="inlineStr">
+        <is>
+          <t>d3f</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="inlineStr">
+        <is>
+          <t>d3gd</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
@@ -893,6 +1185,22 @@
       <c r="D23" s="8" t="n">
         <v>48</v>
       </c>
+      <c r="G23" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
@@ -911,6 +1219,22 @@
       <c r="D24" s="8" t="n">
         <v>49</v>
       </c>
+      <c r="G24" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H24" s="10" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
@@ -929,6 +1253,22 @@
       <c r="D25" s="8" t="n">
         <v>50</v>
       </c>
+      <c r="G25" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>fg4</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>ffg</t>
+        </is>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
@@ -947,6 +1287,22 @@
       <c r="D26" s="8" t="n">
         <v>51</v>
       </c>
+      <c r="G26" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H26" s="10" t="inlineStr">
+        <is>
+          <t>rrtty</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="inlineStr">
+        <is>
+          <t>ffgg</t>
+        </is>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="n">
@@ -965,6 +1321,22 @@
       <c r="D27" s="8" t="n">
         <v>52</v>
       </c>
+      <c r="G27" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10" t="inlineStr">
+        <is>
+          <t>hjj</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="inlineStr">
+        <is>
+          <t>gt</t>
+        </is>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n">
@@ -983,6 +1355,22 @@
       <c r="D28" s="8" t="n">
         <v>53</v>
       </c>
+      <c r="G28" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10" t="inlineStr">
+        <is>
+          <t>frty</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="inlineStr">
+        <is>
+          <t>5yt</t>
+        </is>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
@@ -1001,6 +1389,22 @@
       <c r="D29" s="8" t="n">
         <v>54</v>
       </c>
+      <c r="G29" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10" t="inlineStr">
+        <is>
+          <t>56yh</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="inlineStr">
+        <is>
+          <t>565yt</t>
+        </is>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
@@ -1019,6 +1423,22 @@
       <c r="D30" s="8" t="n">
         <v>55</v>
       </c>
+      <c r="G30" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H30" s="10" t="inlineStr">
+        <is>
+          <t>ytty</t>
+        </is>
+      </c>
+      <c r="I30" s="10" t="inlineStr">
+        <is>
+          <t>tyyt</t>
+        </is>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
@@ -1037,6 +1457,22 @@
       <c r="D31" s="8" t="n">
         <v>56</v>
       </c>
+      <c r="G31" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H31" s="10" t="inlineStr">
+        <is>
+          <t>ty</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
@@ -1055,6 +1491,22 @@
       <c r="D32" s="8" t="n">
         <v>57</v>
       </c>
+      <c r="G32" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="H32" s="10" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
@@ -1073,6 +1525,22 @@
       <c r="D33" s="8" t="n">
         <v>58</v>
       </c>
+      <c r="G33" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="H33" s="10" t="inlineStr">
+        <is>
+          <t>tt</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
@@ -1091,6 +1559,22 @@
       <c r="D34" s="8" t="n">
         <v>59</v>
       </c>
+      <c r="G34" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="H34" s="10" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="I34" s="10" t="inlineStr">
+        <is>
+          <t>oo</t>
+        </is>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
@@ -1109,6 +1593,22 @@
       <c r="D35" s="8" t="n">
         <v>60</v>
       </c>
+      <c r="G35" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="H35" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I35" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
@@ -1127,6 +1627,22 @@
       <c r="D36" s="8" t="n">
         <v>61</v>
       </c>
+      <c r="G36" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I36" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
@@ -1145,6 +1661,22 @@
       <c r="D37" s="8" t="n">
         <v>62</v>
       </c>
+      <c r="G37" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H37" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
@@ -1163,6 +1695,22 @@
       <c r="D38" s="8" t="n">
         <v>63</v>
       </c>
+      <c r="G38" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H38" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="n">
@@ -1181,6 +1729,22 @@
       <c r="D39" s="8" t="n">
         <v>64</v>
       </c>
+      <c r="G39" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="H39" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n">
@@ -1199,6 +1763,22 @@
       <c r="D40" s="8" t="n">
         <v>65</v>
       </c>
+      <c r="G40" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="H40" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I40" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="n">
@@ -1217,6 +1797,22 @@
       <c r="D41" s="8" t="n">
         <v>66</v>
       </c>
+      <c r="G41" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="J41" s="8" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="n">
@@ -1235,6 +1831,22 @@
       <c r="D42" s="8" t="n">
         <v>67</v>
       </c>
+      <c r="G42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="H42" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I42" s="10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="n">
@@ -1253,6 +1865,22 @@
       <c r="D43" s="8" t="n">
         <v>68</v>
       </c>
+      <c r="G43" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H43" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I43" s="10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="n">
@@ -1271,6 +1899,22 @@
       <c r="D44" s="8" t="n">
         <v>69</v>
       </c>
+      <c r="G44" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="H44" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I44" s="10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="n">
@@ -1289,6 +1933,22 @@
       <c r="D45" s="8" t="n">
         <v>70</v>
       </c>
+      <c r="G45" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="H45" s="10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I45" s="10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="n">
@@ -1307,6 +1967,22 @@
       <c r="D46" s="8" t="n">
         <v>71</v>
       </c>
+      <c r="G46" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="H46" s="10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I46" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="n">
@@ -1325,6 +2001,22 @@
       <c r="D47" s="8" t="n">
         <v>72</v>
       </c>
+      <c r="G47" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="H47" s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I47" s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="48">
       <c r="D48" s="9" t="inlineStr">
@@ -1338,20 +2030,35 @@
       <c r="F48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J48" s="9" t="inlineStr">
+        <is>
+          <t>Результат:</t>
+        </is>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G10:L10"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -616,47 +616,17 @@
           <t>Чёрные</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Белые</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Чёрные</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>№</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Белые</t>
-        </is>
-      </c>
       <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Чёрные</t>
-        </is>
-      </c>
-      <c r="J11" s="9" t="inlineStr">
-        <is>
-          <t>№</t>
-        </is>
-      </c>
-      <c r="K11" s="9" t="inlineStr">
-        <is>
-          <t>Белые</t>
-        </is>
-      </c>
-      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>Чёрные</t>
         </is>
@@ -676,19 +646,6 @@
           <t>e5</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G12" s="8" t="n">
         <v>1</v>
       </c>
@@ -700,19 +657,6 @@
       <c r="I12" s="10" t="inlineStr">
         <is>
           <t>e5</t>
-        </is>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="K12" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L12" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -730,19 +674,6 @@
           <t>Bc5</t>
         </is>
       </c>
-      <c r="D13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="G13" s="8" t="n">
         <v>2</v>
       </c>
@@ -754,19 +685,6 @@
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Bc5</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="K13" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L13" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -784,19 +702,6 @@
           <t>Nc6</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="G14" s="8" t="n">
         <v>3</v>
       </c>
@@ -808,19 +713,6 @@
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Nc6</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="K14" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L14" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -838,19 +730,6 @@
           <t>Qxg5</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G15" s="8" t="n">
         <v>4</v>
       </c>
@@ -862,19 +741,6 @@
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Qxg5</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="K15" s="10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="L15" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -892,19 +758,6 @@
           <t>Qxg2</t>
         </is>
       </c>
-      <c r="D16" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="G16" s="8" t="n">
         <v>5</v>
       </c>
@@ -916,19 +769,6 @@
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Qxg2</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="K16" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L16" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -946,19 +786,6 @@
           <t>Qxh1+</t>
         </is>
       </c>
-      <c r="D17" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="G17" s="8" t="n">
         <v>6</v>
       </c>
@@ -970,19 +797,6 @@
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>Qxh1+</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K17" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L17" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -1000,15 +814,6 @@
           <t>Qf3</t>
         </is>
       </c>
-      <c r="D18" s="8" t="n">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr"/>
       <c r="G18" s="8" t="n">
         <v>7</v>
       </c>
@@ -1022,15 +827,6 @@
           <t>Qf3</t>
         </is>
       </c>
-      <c r="J18" s="8" t="n">
-        <v>43</v>
-      </c>
-      <c r="K18" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" s="10" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
@@ -1046,9 +842,6 @@
           <t>Qg4</t>
         </is>
       </c>
-      <c r="D19" s="8" t="n">
-        <v>44</v>
-      </c>
       <c r="G19" s="8" t="n">
         <v>8</v>
       </c>
@@ -1061,9 +854,6 @@
         <is>
           <t>Qg4</t>
         </is>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1080,9 +870,6 @@
           <t>Nd4</t>
         </is>
       </c>
-      <c r="D20" s="8" t="n">
-        <v>45</v>
-      </c>
       <c r="G20" s="8" t="n">
         <v>9</v>
       </c>
@@ -1095,9 +882,6 @@
         <is>
           <t>Nd4</t>
         </is>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -1114,9 +898,6 @@
           <t>Nxc2#</t>
         </is>
       </c>
-      <c r="D21" s="8" t="n">
-        <v>46</v>
-      </c>
       <c r="G21" s="8" t="n">
         <v>10</v>
       </c>
@@ -1129,894 +910,215 @@
         <is>
           <t>Nxc2#</t>
         </is>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>d3f</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>d3gd</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>47</v>
-      </c>
       <c r="G22" s="8" t="n">
         <v>11</v>
-      </c>
-      <c r="H22" s="10" t="inlineStr">
-        <is>
-          <t>d3f</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="inlineStr">
-        <is>
-          <t>d3gd</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>dfg</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>dfgdfg</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>48</v>
-      </c>
       <c r="G23" s="8" t="n">
         <v>12</v>
-      </c>
-      <c r="H23" s="10" t="inlineStr">
-        <is>
-          <t>dfg</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="inlineStr">
-        <is>
-          <t>dfgdfg</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>dfg</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>dfgdfg</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>49</v>
-      </c>
       <c r="G24" s="8" t="n">
         <v>13</v>
-      </c>
-      <c r="H24" s="10" t="inlineStr">
-        <is>
-          <t>dfg</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="inlineStr">
-        <is>
-          <t>dfgdfg</t>
-        </is>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t>fg4</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>ffg</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>50</v>
-      </c>
       <c r="G25" s="8" t="n">
         <v>14</v>
-      </c>
-      <c r="H25" s="10" t="inlineStr">
-        <is>
-          <t>fg4</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="inlineStr">
-        <is>
-          <t>ffg</t>
-        </is>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>rrtty</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>ffgg</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>51</v>
-      </c>
       <c r="G26" s="8" t="n">
         <v>15</v>
-      </c>
-      <c r="H26" s="10" t="inlineStr">
-        <is>
-          <t>rrtty</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="inlineStr">
-        <is>
-          <t>ffgg</t>
-        </is>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>hjj</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>52</v>
-      </c>
       <c r="G27" s="8" t="n">
         <v>16</v>
-      </c>
-      <c r="H27" s="10" t="inlineStr">
-        <is>
-          <t>hjj</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>frty</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>5yt</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>53</v>
-      </c>
       <c r="G28" s="8" t="n">
         <v>17</v>
-      </c>
-      <c r="H28" s="10" t="inlineStr">
-        <is>
-          <t>frty</t>
-        </is>
-      </c>
-      <c r="I28" s="10" t="inlineStr">
-        <is>
-          <t>5yt</t>
-        </is>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
-        <is>
-          <t>56yh</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>565yt</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>54</v>
-      </c>
       <c r="G29" s="8" t="n">
         <v>18</v>
-      </c>
-      <c r="H29" s="10" t="inlineStr">
-        <is>
-          <t>56yh</t>
-        </is>
-      </c>
-      <c r="I29" s="10" t="inlineStr">
-        <is>
-          <t>565yt</t>
-        </is>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
-        <is>
-          <t>ytty</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>tyyt</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>55</v>
-      </c>
       <c r="G30" s="8" t="n">
         <v>19</v>
-      </c>
-      <c r="H30" s="10" t="inlineStr">
-        <is>
-          <t>ytty</t>
-        </is>
-      </c>
-      <c r="I30" s="10" t="inlineStr">
-        <is>
-          <t>tyyt</t>
-        </is>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t>ty</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>yy</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>56</v>
-      </c>
       <c r="G31" s="8" t="n">
         <v>20</v>
-      </c>
-      <c r="H31" s="10" t="inlineStr">
-        <is>
-          <t>ty</t>
-        </is>
-      </c>
-      <c r="I31" s="10" t="inlineStr">
-        <is>
-          <t>yy</t>
-        </is>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>ww</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>ee</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>57</v>
-      </c>
       <c r="G32" s="8" t="n">
         <v>21</v>
-      </c>
-      <c r="H32" s="10" t="inlineStr">
-        <is>
-          <t>ww</t>
-        </is>
-      </c>
-      <c r="I32" s="10" t="inlineStr">
-        <is>
-          <t>ee</t>
-        </is>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t>tt</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>yy</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>58</v>
-      </c>
       <c r="G33" s="8" t="n">
         <v>22</v>
-      </c>
-      <c r="H33" s="10" t="inlineStr">
-        <is>
-          <t>tt</t>
-        </is>
-      </c>
-      <c r="I33" s="10" t="inlineStr">
-        <is>
-          <t>yy</t>
-        </is>
-      </c>
-      <c r="J33" s="8" t="n">
-        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>ii</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>oo</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>59</v>
-      </c>
       <c r="G34" s="8" t="n">
         <v>23</v>
-      </c>
-      <c r="H34" s="10" t="inlineStr">
-        <is>
-          <t>ii</t>
-        </is>
-      </c>
-      <c r="I34" s="10" t="inlineStr">
-        <is>
-          <t>oo</t>
-        </is>
-      </c>
-      <c r="J34" s="8" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="n">
-        <v>60</v>
-      </c>
       <c r="G35" s="8" t="n">
         <v>24</v>
-      </c>
-      <c r="H35" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I35" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" s="8" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>61</v>
-      </c>
       <c r="G36" s="8" t="n">
         <v>25</v>
-      </c>
-      <c r="H36" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I36" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J36" s="8" t="n">
-        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>62</v>
-      </c>
       <c r="G37" s="8" t="n">
         <v>26</v>
-      </c>
-      <c r="H37" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I37" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B38" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v>63</v>
-      </c>
       <c r="G38" s="8" t="n">
         <v>27</v>
-      </c>
-      <c r="H38" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I38" s="10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" s="8" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B39" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="n">
-        <v>64</v>
-      </c>
       <c r="G39" s="8" t="n">
         <v>28</v>
-      </c>
-      <c r="H39" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I39" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J39" s="8" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B40" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v>65</v>
-      </c>
       <c r="G40" s="8" t="n">
         <v>29</v>
-      </c>
-      <c r="H40" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I40" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J40" s="8" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="n">
-        <v>66</v>
-      </c>
       <c r="G41" s="8" t="n">
         <v>30</v>
-      </c>
-      <c r="H41" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I41" s="10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="J41" s="8" t="n">
-        <v>66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B42" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D42" s="8" t="n">
-        <v>67</v>
-      </c>
       <c r="G42" s="8" t="n">
         <v>31</v>
-      </c>
-      <c r="H42" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I42" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J42" s="8" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B43" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>68</v>
-      </c>
       <c r="G43" s="8" t="n">
         <v>32</v>
-      </c>
-      <c r="H43" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I43" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J43" s="8" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B44" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="n">
-        <v>69</v>
-      </c>
       <c r="G44" s="8" t="n">
         <v>33</v>
-      </c>
-      <c r="H44" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I44" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B45" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="n">
-        <v>70</v>
-      </c>
       <c r="G45" s="8" t="n">
         <v>34</v>
-      </c>
-      <c r="H45" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I45" s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B46" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>71</v>
-      </c>
       <c r="G46" s="8" t="n">
         <v>35</v>
-      </c>
-      <c r="H46" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I46" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B47" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D47" s="8" t="n">
-        <v>72</v>
-      </c>
       <c r="G47" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="H47" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I47" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J47" s="8" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="48">
       <c r="D48" s="9" t="inlineStr">
@@ -2025,21 +1127,21 @@
         </is>
       </c>
       <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="J48" s="9" t="inlineStr">
+        <is>
+          <t>Результат:</t>
+        </is>
+      </c>
+      <c r="K48" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J48" s="9" t="inlineStr">
-        <is>
-          <t>Результат:</t>
-        </is>
-      </c>
-      <c r="K48" s="9" t="n">
+      <c r="L48" s="9" t="n">
         <v>1</v>
-      </c>
-      <c r="L48" s="9" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -567,12 +567,12 @@
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>Играна во "2" туре 01.01.2000</t>
+          <t>Играна во "1" туре 01.01.2000</t>
         </is>
       </c>
       <c r="G8" s="9" t="inlineStr">
         <is>
-          <t>Играна во "2" туре 01.01.2000</t>
+          <t>Играна во "1" туре 01.01.2000</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B13" s="10" t="inlineStr">
         <is>
-          <t>Bc4</t>
+          <t>Кf3</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Bc5</t>
+          <t>Кc6</t>
         </is>
       </c>
       <c r="G13" s="8" t="n">
@@ -679,12 +679,12 @@
       </c>
       <c r="H13" s="10" t="inlineStr">
         <is>
-          <t>Bc4</t>
+          <t>Кf3</t>
         </is>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
-          <t>Bc5</t>
+          <t>Кc6</t>
         </is>
       </c>
     </row>
@@ -694,12 +694,12 @@
       </c>
       <c r="B14" s="10" t="inlineStr">
         <is>
-          <t>Nf3</t>
+          <t>d4</t>
         </is>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Nc6</t>
+          <t>f6</t>
         </is>
       </c>
       <c r="G14" s="8" t="n">
@@ -707,12 +707,12 @@
       </c>
       <c r="H14" s="10" t="inlineStr">
         <is>
-          <t>Nf3</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
-          <t>Nc6</t>
+          <t>d6</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B15" s="10" t="inlineStr">
         <is>
-          <t>Ng5</t>
+          <t>d5</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Qxg5</t>
+          <t>Кd4</t>
         </is>
       </c>
       <c r="G15" s="8" t="n">
@@ -735,12 +735,12 @@
       </c>
       <c r="H15" s="10" t="inlineStr">
         <is>
-          <t>Ng5</t>
+          <t>d4</t>
         </is>
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
-          <t>Qxg5</t>
+          <t>Cg4</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B16" s="10" t="inlineStr">
         <is>
-          <t>d3</t>
+          <t>Кxd4</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Qxg2</t>
+          <t>exd4</t>
         </is>
       </c>
       <c r="G16" s="8" t="n">
@@ -763,12 +763,12 @@
       </c>
       <c r="H16" s="10" t="inlineStr">
         <is>
-          <t>d3</t>
+          <t>Cg5</t>
         </is>
       </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
-          <t>Qxg2</t>
+          <t>f6</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="B17" s="10" t="inlineStr">
         <is>
-          <t>Qe2</t>
+          <t>Фxd4</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Qxh1+</t>
+          <t>d6</t>
         </is>
       </c>
       <c r="G17" s="8" t="n">
@@ -791,12 +791,12 @@
       </c>
       <c r="H17" s="10" t="inlineStr">
         <is>
-          <t>Qe2</t>
+          <t>Ce3</t>
         </is>
       </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>Qxh1+</t>
+          <t>Фd7</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="B18" s="10" t="inlineStr">
         <is>
-          <t>Qf1</t>
+          <t>Кc3</t>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Qf3</t>
+          <t>f5</t>
         </is>
       </c>
       <c r="G18" s="8" t="n">
@@ -819,12 +819,12 @@
       </c>
       <c r="H18" s="10" t="inlineStr">
         <is>
-          <t>Qf1</t>
+          <t>Кbd2</t>
         </is>
       </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
-          <t>Qf3</t>
+          <t>O-O-O</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="B19" s="10" t="inlineStr">
         <is>
-          <t>Nd2</t>
+          <t>e5</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Qg4</t>
+          <t>dxe5</t>
         </is>
       </c>
       <c r="G19" s="8" t="n">
@@ -847,12 +847,12 @@
       </c>
       <c r="H19" s="10" t="inlineStr">
         <is>
-          <t>Nd2</t>
+          <t>h3</t>
         </is>
       </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
-          <t>Qg4</t>
+          <t>Cxf3</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>Фxe5+</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Nd4</t>
+          <t>Фe7</t>
         </is>
       </c>
       <c r="G20" s="8" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="H20" s="10" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>Фxf3</t>
         </is>
       </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
-          <t>Nd4</t>
+          <t>Кge7</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="B21" s="10" t="inlineStr">
         <is>
-          <t>b4</t>
+          <t>Фxe7+</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Nxc2#</t>
+          <t>Кxe7</t>
         </is>
       </c>
       <c r="G21" s="8" t="n">
@@ -903,12 +903,12 @@
       </c>
       <c r="H21" s="10" t="inlineStr">
         <is>
-          <t>b4</t>
+          <t>d5</t>
         </is>
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
-          <t>Nxc2#</t>
+          <t>Фf7</t>
         </is>
       </c>
     </row>
@@ -916,182 +916,632 @@
       <c r="A22" s="8" t="n">
         <v>11</v>
       </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Cd3</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>c6</t>
+        </is>
+      </c>
       <c r="G22" s="8" t="n">
         <v>11</v>
+      </c>
+      <c r="H22" s="10" t="inlineStr">
+        <is>
+          <t>dxc6</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="inlineStr">
+        <is>
+          <t>Кxc6</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>O-O</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Кxd5</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="n">
         <v>12</v>
+      </c>
+      <c r="H23" s="10" t="inlineStr">
+        <is>
+          <t>Cxa7</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t>Кxa7</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
         <v>13</v>
       </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Лe1+</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Ce7</t>
+        </is>
+      </c>
       <c r="G24" s="8" t="n">
         <v>13</v>
+      </c>
+      <c r="H24" s="10" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="inlineStr">
+        <is>
+          <t>d5</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
         <v>14</v>
       </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>Кxd5</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>cxd5</t>
+        </is>
+      </c>
       <c r="G25" s="8" t="n">
         <v>14</v>
+      </c>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>exd5</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>Лxd5</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
         <v>15</v>
       </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>h3</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Ce6</t>
+        </is>
+      </c>
       <c r="G26" s="8" t="n">
         <v>15</v>
+      </c>
+      <c r="H26" s="10" t="inlineStr">
+        <is>
+          <t>Лd1</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="inlineStr">
+        <is>
+          <t>Лc5</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="n">
         <v>16</v>
       </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Лxe6</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>O-O-O</t>
+        </is>
+      </c>
       <c r="G27" s="8" t="n">
         <v>16</v>
+      </c>
+      <c r="H27" s="10" t="inlineStr">
+        <is>
+          <t>Фd3</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="inlineStr">
+        <is>
+          <t>Cd6</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n">
         <v>17</v>
       </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Лxe7</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Лhe8</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="n">
         <v>17</v>
+      </c>
+      <c r="H28" s="10" t="inlineStr">
+        <is>
+          <t>Фf5+</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="inlineStr">
+        <is>
+          <t>Крb8</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
         <v>18</v>
       </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>Лxg7</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Лe1+</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="n">
         <v>18</v>
+      </c>
+      <c r="H29" s="10" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="inlineStr">
+        <is>
+          <t>Лxc4</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
         <v>19</v>
       </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>Крh2</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>h5</t>
+        </is>
+      </c>
       <c r="G30" s="8" t="n">
         <v>19</v>
+      </c>
+      <c r="H30" s="10" t="inlineStr">
+        <is>
+          <t>Cxc4</t>
+        </is>
+      </c>
+      <c r="I30" s="10" t="inlineStr">
+        <is>
+          <t>Фxc4</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
         <v>20</v>
       </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Cxf5+</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Крb8</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="n">
         <v>20</v>
+      </c>
+      <c r="H31" s="10" t="inlineStr">
+        <is>
+          <t>Крe2</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="inlineStr">
+        <is>
+          <t>Фxa3</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
         <v>21</v>
       </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>Лg5</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Лh8</t>
+        </is>
+      </c>
       <c r="G32" s="8" t="n">
         <v>21</v>
+      </c>
+      <c r="H32" s="10" t="inlineStr">
+        <is>
+          <t>Фe4</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="inlineStr">
+        <is>
+          <t>Фxb4</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
         <v>22</v>
       </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>b3</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>d4</t>
+        </is>
+      </c>
       <c r="G33" s="8" t="n">
         <v>22</v>
+      </c>
+      <c r="H33" s="10" t="inlineStr">
+        <is>
+          <t>Фe3</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="inlineStr">
+        <is>
+          <t>Фb5+</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
         <v>23</v>
       </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Cb2</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Лxa1</t>
+        </is>
+      </c>
       <c r="G34" s="8" t="n">
         <v>23</v>
+      </c>
+      <c r="H34" s="10" t="inlineStr">
+        <is>
+          <t>Крf3</t>
+        </is>
+      </c>
+      <c r="I34" s="10" t="inlineStr">
+        <is>
+          <t>Cc5</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
         <v>24</v>
       </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>Cxa1</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>d3</t>
+        </is>
+      </c>
       <c r="G35" s="8" t="n">
         <v>24</v>
+      </c>
+      <c r="H35" s="10" t="inlineStr">
+        <is>
+          <t>Фa3</t>
+        </is>
+      </c>
+      <c r="I35" s="10" t="inlineStr">
+        <is>
+          <t>Cxa3</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
         <v>25</v>
       </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>cxd3</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>h4</t>
+        </is>
+      </c>
       <c r="G36" s="8" t="n">
         <v>25</v>
+      </c>
+      <c r="H36" s="10" t="inlineStr">
+        <is>
+          <t>Крg3</t>
+        </is>
+      </c>
+      <c r="I36" s="10" t="inlineStr">
+        <is>
+          <t>Фc3+</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
         <v>26</v>
       </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>d4</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Лf8</t>
+        </is>
+      </c>
       <c r="G37" s="8" t="n">
         <v>26</v>
+      </c>
+      <c r="H37" s="10" t="inlineStr">
+        <is>
+          <t>f3</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="inlineStr">
+        <is>
+          <t>Фxd2</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
         <v>27</v>
       </c>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>d5</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Крc7</t>
+        </is>
+      </c>
       <c r="G38" s="8" t="n">
         <v>27</v>
+      </c>
+      <c r="H38" s="10" t="inlineStr">
+        <is>
+          <t>f4</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="inlineStr">
+        <is>
+          <t>Фe3+</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="n">
         <v>28</v>
       </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>Ce5+</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Крb6</t>
+        </is>
+      </c>
       <c r="G39" s="8" t="n">
         <v>28</v>
+      </c>
+      <c r="H39" s="10" t="inlineStr">
+        <is>
+          <t>Крh4</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="inlineStr">
+        <is>
+          <t>Фxf4</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n">
         <v>29</v>
       </c>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>Cd4+</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Крc7</t>
+        </is>
+      </c>
       <c r="G40" s="8" t="n">
         <v>29</v>
+      </c>
+      <c r="H40" s="10" t="inlineStr">
+        <is>
+          <t>Крh5</t>
+        </is>
+      </c>
+      <c r="I40" s="10" t="inlineStr">
+        <is>
+          <t>g6+</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="n">
         <v>30</v>
       </c>
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>Cg7</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Лf7</t>
+        </is>
+      </c>
       <c r="G41" s="8" t="n">
         <v>30</v>
+      </c>
+      <c r="H41" s="10" t="inlineStr">
+        <is>
+          <t>Крh4</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="inlineStr">
+        <is>
+          <t>g5+</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="n">
         <v>31</v>
       </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Крd6</t>
+        </is>
+      </c>
       <c r="G42" s="8" t="n">
         <v>31</v>
+      </c>
+      <c r="H42" s="10" t="inlineStr">
+        <is>
+          <t>Крh5</t>
+        </is>
+      </c>
+      <c r="I42" s="10" t="inlineStr">
+        <is>
+          <t>Фg3</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="n">
         <v>32</v>
       </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>Ca1</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Крxd5</t>
+        </is>
+      </c>
       <c r="G43" s="8" t="n">
         <v>32</v>
+      </c>
+      <c r="H43" s="10" t="inlineStr">
+        <is>
+          <t>Лd1</t>
+        </is>
+      </c>
+      <c r="I43" s="10" t="inlineStr">
+        <is>
+          <t>Фxh3#</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="n">
         <v>33</v>
       </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Лh5</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Лe7</t>
+        </is>
+      </c>
       <c r="G44" s="8" t="n">
         <v>33</v>
       </c>
@@ -1100,6 +1550,16 @@
       <c r="A45" s="8" t="n">
         <v>34</v>
       </c>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>Лxh4</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Лe2</t>
+        </is>
+      </c>
       <c r="G45" s="8" t="n">
         <v>34</v>
       </c>
@@ -1108,6 +1568,16 @@
       <c r="A46" s="8" t="n">
         <v>35</v>
       </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Крg3</t>
+        </is>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Лxa2</t>
+        </is>
+      </c>
       <c r="G46" s="8" t="n">
         <v>35</v>
       </c>
@@ -1115,6 +1585,16 @@
     <row r="47">
       <c r="A47" s="8" t="n">
         <v>36</v>
+      </c>
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>Ch8</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Лa3</t>
+        </is>
       </c>
       <c r="G47" s="8" t="n">
         <v>36</v>

--- a/data/otchet.xlsx
+++ b/data/otchet.xlsx
@@ -666,12 +666,12 @@
       </c>
       <c r="B13" s="10" t="inlineStr">
         <is>
-          <t>Кf3</t>
+          <t>Nf3</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Кc6</t>
+          <t>Nc6</t>
         </is>
       </c>
       <c r="G13" s="8" t="n">
@@ -679,12 +679,12 @@
       </c>
       <c r="H13" s="10" t="inlineStr">
         <is>
-          <t>Кf3</t>
+          <t>Nf3</t>
         </is>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
-          <t>Кc6</t>
+          <t>Nc6</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Кd4</t>
+          <t>Nd4</t>
         </is>
       </c>
       <c r="G15" s="8" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
-          <t>Cg4</t>
+          <t>Bg4</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B16" s="10" t="inlineStr">
         <is>
-          <t>Кxd4</t>
+          <t>Nxd4</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H16" s="10" t="inlineStr">
         <is>
-          <t>Cg5</t>
+          <t>Bg5</t>
         </is>
       </c>
       <c r="I16" s="10" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="B17" s="10" t="inlineStr">
         <is>
-          <t>Фxd4</t>
+          <t>Qxd4</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="H17" s="10" t="inlineStr">
         <is>
-          <t>Ce3</t>
+          <t>Be3</t>
         </is>
       </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>Фd7</t>
+          <t>Qd7</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B18" s="10" t="inlineStr">
         <is>
-          <t>Кc3</t>
+          <t>Nc3</t>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H18" s="10" t="inlineStr">
         <is>
-          <t>Кbd2</t>
+          <t>Nbd2</t>
         </is>
       </c>
       <c r="I18" s="10" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
-          <t>Cxf3</t>
+          <t>Bxf3</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>Фxe5+</t>
+          <t>Qxe5+</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Фe7</t>
+          <t>Qe7</t>
         </is>
       </c>
       <c r="G20" s="8" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="H20" s="10" t="inlineStr">
         <is>
-          <t>Фxf3</t>
+          <t>Qxf3</t>
         </is>
       </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
-          <t>Кge7</t>
+          <t>Nge7</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="B21" s="10" t="inlineStr">
         <is>
-          <t>Фxe7+</t>
+          <t>Qxe7+</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Кxe7</t>
+          <t>Nxe7</t>
         </is>
       </c>
       <c r="G21" s="8" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
-          <t>Фf7</t>
+          <t>Qf7</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="B22" s="10" t="inlineStr">
         <is>
-          <t>Cd3</t>
+          <t>Bd3</t>
         </is>
       </c>
       <c r="C22" s="10" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
-          <t>Кxc6</t>
+          <t>Nxc6</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Кxd5</t>
+          <t>Nxd5</t>
         </is>
       </c>
       <c r="G23" s="8" t="n">
@@ -959,12 +959,12 @@
       </c>
       <c r="H23" s="10" t="inlineStr">
         <is>
-          <t>Cxa7</t>
+          <t>Bxa7</t>
         </is>
       </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
-          <t>Кxa7</t>
+          <t>Nxa7</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>Лe1+</t>
+          <t>Re1+</t>
         </is>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Ce7</t>
+          <t>Be7</t>
         </is>
       </c>
       <c r="G24" s="8" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B25" s="10" t="inlineStr">
         <is>
-          <t>Кxd5</t>
+          <t>Nxd5</t>
         </is>
       </c>
       <c r="C25" s="10" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="I25" s="10" t="inlineStr">
         <is>
-          <t>Лxd5</t>
+          <t>Rxd5</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Ce6</t>
+          <t>Be6</t>
         </is>
       </c>
       <c r="G26" s="8" t="n">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="H26" s="10" t="inlineStr">
         <is>
-          <t>Лd1</t>
+          <t>Rd1</t>
         </is>
       </c>
       <c r="I26" s="10" t="inlineStr">
         <is>
-          <t>Лc5</t>
+          <t>Rc5</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B27" s="10" t="inlineStr">
         <is>
-          <t>Лxe6</t>
+          <t>Rxe6</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="H27" s="10" t="inlineStr">
         <is>
-          <t>Фd3</t>
+          <t>Qd3</t>
         </is>
       </c>
       <c r="I27" s="10" t="inlineStr">
         <is>
-          <t>Cd6</t>
+          <t>Bd6</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>Лxe7</t>
+          <t>Rxe7</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Лhe8</t>
+          <t>Rhe8</t>
         </is>
       </c>
       <c r="G28" s="8" t="n">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="H28" s="10" t="inlineStr">
         <is>
-          <t>Фf5+</t>
+          <t>Qf5+</t>
         </is>
       </c>
       <c r="I28" s="10" t="inlineStr">
         <is>
-          <t>Крb8</t>
+          <t>Kb8</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B29" s="10" t="inlineStr">
         <is>
-          <t>Лxg7</t>
+          <t>Rxg7</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>Лe1+</t>
+          <t>Re1+</t>
         </is>
       </c>
       <c r="G29" s="8" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I29" s="10" t="inlineStr">
         <is>
-          <t>Лxc4</t>
+          <t>Rxc4</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B30" s="10" t="inlineStr">
         <is>
-          <t>Крh2</t>
+          <t>Kh2</t>
         </is>
       </c>
       <c r="C30" s="10" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="H30" s="10" t="inlineStr">
         <is>
-          <t>Cxc4</t>
+          <t>Bxc4</t>
         </is>
       </c>
       <c r="I30" s="10" t="inlineStr">
         <is>
-          <t>Фxc4</t>
+          <t>Qxc4</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="B31" s="10" t="inlineStr">
         <is>
-          <t>Cxf5+</t>
+          <t>Bxf5+</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Крb8</t>
+          <t>Kb8</t>
         </is>
       </c>
       <c r="G31" s="8" t="n">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="H31" s="10" t="inlineStr">
         <is>
-          <t>Крe2</t>
+          <t>Ke2</t>
         </is>
       </c>
       <c r="I31" s="10" t="inlineStr">
         <is>
-          <t>Фxa3</t>
+          <t>Qxa3</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B32" s="10" t="inlineStr">
         <is>
-          <t>Лg5</t>
+          <t>Rg5</t>
         </is>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>Лh8</t>
+          <t>Rh8</t>
         </is>
       </c>
       <c r="G32" s="8" t="n">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H32" s="10" t="inlineStr">
         <is>
-          <t>Фe4</t>
+          <t>Qe4</t>
         </is>
       </c>
       <c r="I32" s="10" t="inlineStr">
         <is>
-          <t>Фxb4</t>
+          <t>Qxb4</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="H33" s="10" t="inlineStr">
         <is>
-          <t>Фe3</t>
+          <t>Qe3</t>
         </is>
       </c>
       <c r="I33" s="10" t="inlineStr">
         <is>
-          <t>Фb5+</t>
+          <t>Qb5+</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="B34" s="10" t="inlineStr">
         <is>
-          <t>Cb2</t>
+          <t>Bb2</t>
         </is>
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
-          <t>Лxa1</t>
+          <t>Rxa1</t>
         </is>
       </c>
       <c r="G34" s="8" t="n">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="H34" s="10" t="inlineStr">
         <is>
-          <t>Крf3</t>
+          <t>Kf3</t>
         </is>
       </c>
       <c r="I34" s="10" t="inlineStr">
         <is>
-          <t>Cc5</t>
+          <t>Bc5</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B35" s="10" t="inlineStr">
         <is>
-          <t>Cxa1</t>
+          <t>Bxa1</t>
         </is>
       </c>
       <c r="C35" s="10" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="H35" s="10" t="inlineStr">
         <is>
-          <t>Фa3</t>
+          <t>Qa3</t>
         </is>
       </c>
       <c r="I35" s="10" t="inlineStr">
         <is>
-          <t>Cxa3</t>
+          <t>Bxa3</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H36" s="10" t="inlineStr">
         <is>
-          <t>Крg3</t>
+          <t>Kg3</t>
         </is>
       </c>
       <c r="I36" s="10" t="inlineStr">
         <is>
-          <t>Фc3+</t>
+          <t>Qc3+</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
-          <t>Лf8</t>
+          <t>Rf8</t>
         </is>
       </c>
       <c r="G37" s="8" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I37" s="10" t="inlineStr">
         <is>
-          <t>Фxd2</t>
+          <t>Qxd2</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C38" s="10" t="inlineStr">
         <is>
-          <t>Крc7</t>
+          <t>Kc7</t>
         </is>
       </c>
       <c r="G38" s="8" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I38" s="10" t="inlineStr">
         <is>
-          <t>Фe3+</t>
+          <t>Qe3+</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="B39" s="10" t="inlineStr">
         <is>
-          <t>Ce5+</t>
+          <t>Be5+</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
-          <t>Крb6</t>
+          <t>Kb6</t>
         </is>
       </c>
       <c r="G39" s="8" t="n">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="H39" s="10" t="inlineStr">
         <is>
-          <t>Крh4</t>
+          <t>Kh4</t>
         </is>
       </c>
       <c r="I39" s="10" t="inlineStr">
         <is>
-          <t>Фxf4</t>
+          <t>Qxf4</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       </c>
       <c r="B40" s="10" t="inlineStr">
         <is>
-          <t>Cd4+</t>
+          <t>Bd4+</t>
         </is>
       </c>
       <c r="C40" s="10" t="inlineStr">
         <is>
-          <t>Крc7</t>
+          <t>Kc7</t>
         </is>
       </c>
       <c r="G40" s="8" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H40" s="10" t="inlineStr">
         <is>
-          <t>Крh5</t>
+          <t>Kh5</t>
         </is>
       </c>
       <c r="I40" s="10" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="B41" s="10" t="inlineStr">
         <is>
-          <t>Cg7</t>
+          <t>Bg7</t>
         </is>
       </c>
       <c r="C41" s="10" t="inlineStr">
         <is>
-          <t>Лf7</t>
+          <t>Rf7</t>
         </is>
       </c>
       <c r="G41" s="8" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H41" s="10" t="inlineStr">
         <is>
-          <t>Крh4</t>
+          <t>Kh4</t>
         </is>
       </c>
       <c r="I41" s="10" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C42" s="10" t="inlineStr">
         <is>
-          <t>Крd6</t>
+          <t>Kd6</t>
         </is>
       </c>
       <c r="G42" s="8" t="n">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="H42" s="10" t="inlineStr">
         <is>
-          <t>Крh5</t>
+          <t>Kh5</t>
         </is>
       </c>
       <c r="I42" s="10" t="inlineStr">
         <is>
-          <t>Фg3</t>
+          <t>Qg3</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B43" s="10" t="inlineStr">
         <is>
-          <t>Ca1</t>
+          <t>Ba1</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr">
         <is>
-          <t>Крxd5</t>
+          <t>Kxd5</t>
         </is>
       </c>
       <c r="G43" s="8" t="n">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="H43" s="10" t="inlineStr">
         <is>
-          <t>Лd1</t>
+          <t>Rd1</t>
         </is>
       </c>
       <c r="I43" s="10" t="inlineStr">
         <is>
-          <t>Фxh3#</t>
+          <t>Qxh3#</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B44" s="10" t="inlineStr">
         <is>
-          <t>Лh5</t>
+          <t>Rh5</t>
         </is>
       </c>
       <c r="C44" s="10" t="inlineStr">
         <is>
-          <t>Лe7</t>
+          <t>Re7</t>
         </is>
       </c>
       <c r="G44" s="8" t="n">
@@ -1550,16 +1550,6 @@
       <c r="A45" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B45" s="10" t="inlineStr">
-        <is>
-          <t>Лxh4</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
-        <is>
-          <t>Лe2</t>
-        </is>
-      </c>
       <c r="G45" s="8" t="n">
         <v>34</v>
       </c>
@@ -1568,16 +1558,6 @@
       <c r="A46" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B46" s="10" t="inlineStr">
-        <is>
-          <t>Крg3</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
-        <is>
-          <t>Лxa2</t>
-        </is>
-      </c>
       <c r="G46" s="8" t="n">
         <v>35</v>
       </c>
@@ -1585,16 +1565,6 @@
     <row r="47">
       <c r="A47" s="8" t="n">
         <v>36</v>
-      </c>
-      <c r="B47" s="10" t="inlineStr">
-        <is>
-          <t>Ch8</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr">
-        <is>
-          <t>Лa3</t>
-        </is>
       </c>
       <c r="G47" s="8" t="n">
         <v>36</v>
